--- a/KiemY_RSI.xlsx
+++ b/KiemY_RSI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Người thực hiện:</t>
   </si>
@@ -52,13 +52,181 @@
   </si>
   <si>
     <t>0xed05b97f46e60a7a65605eaba9a4b502d32f9510</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>Việc sử dụng RSI giúp cho ta tăng cường khả năng chiến thắng khi vào lệnh</t>
+  </si>
+  <si>
+    <t>Xây dựng bản giao dịch theo RSI</t>
+  </si>
+  <si>
+    <t>Phần đầu sẽ tập trung chủ yếu đến giao dịch trong ngắn hạn để phục vụ cho bài Scalping.xlsx</t>
+  </si>
+  <si>
+    <t>RSI là một công cụ cực kỳ mạnh mẽ và bá đạo</t>
+  </si>
+  <si>
+    <t>Chỉ báo RSI sẽ cho ta biết là thị trường đang là quá mua hay quá bán</t>
+  </si>
+  <si>
+    <t>Điều này có đúng không nhỉ</t>
+  </si>
+  <si>
+    <t>Điều này phụ thuộc vào hoàn cảnh của thị trường</t>
+  </si>
+  <si>
+    <t>Ta sẽ xem hình dưới đây</t>
+  </si>
+  <si>
+    <t>Hình 1</t>
+  </si>
+  <si>
+    <t>Ba đỉnh 1,2,3 đảm bảo nguyên tắc đỉnh sau cao hơn đỉnh trước, đáy sau cao hơn đáy trước</t>
+  </si>
+  <si>
+    <t>Trong đây là xu hướng tăng mạnh</t>
+  </si>
+  <si>
+    <t>Nhưng chỉ số RSI tại ba đỉnh này thì lại giảm dần sau khi hình thành đỉnh mới</t>
+  </si>
+  <si>
+    <t>Thế quá trình tăng mạnh này kết thúc khi nào</t>
+  </si>
+  <si>
+    <t>Thế thì ta phải xem những cái đáy hình thành những cái đỉnh đấy xuất hiện như nào</t>
+  </si>
+  <si>
+    <t>Từ khi xuất hiện cái đáy có RSI nhỏ hơn 30 thì giá bắt đầu giảm</t>
+  </si>
+  <si>
+    <t>Lúc này cái đảy mới hình thành đã phá qua RT3(ngưỡng RT được viết khá chi tiết trong bài Scalping)</t>
+  </si>
+  <si>
+    <t>Vậy thì đối với những người bắt đỉnh quan tâm đến điều gì</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đó là </t>
+  </si>
+  <si>
+    <t>Chờ một xu hướng tăng mạnh</t>
+  </si>
+  <si>
+    <t>Chờ RSI phá xuống dưới 30</t>
+  </si>
+  <si>
+    <t>Chờ đáy hình thành đỉnh bị phá vỡ</t>
+  </si>
+  <si>
+    <t>Chờ sóng hồi retest lại vùng đỉnh bị phá vỡ</t>
+  </si>
+  <si>
+    <t>Nếu sóng hồi không đủ mạnh thì không thể tạo ra một cái đỉnh mới cao hơn đỉnh cũ mà thấp hơn</t>
+  </si>
+  <si>
+    <t>Thế làm sao ta biết được nó hình thành đỉnh mới khi nào</t>
+  </si>
+  <si>
+    <t>Đó là khi nó hồi lại cách xa khỏi cái đáy mới đó rồi giá sẽ phải retest lại cái đáy đó</t>
+  </si>
+  <si>
+    <t>Khi retest lại cái đáy đó thì ta có thể thấy được cái đỉnh mới đã được tạo ra</t>
+  </si>
+  <si>
+    <t>Nếu đỉnh mới đó mà đã thấp hơn cái đỉnh cũ thì ta chỉ việc vào lệnh</t>
+  </si>
+  <si>
+    <t>Có nhiều cách đặt lệnh</t>
+  </si>
+  <si>
+    <t>Stoploss bên trên cái đỉnh mới cao nhất</t>
+  </si>
+  <si>
+    <t>Đặt lệnh Sell Stop bên dưới cái đảy mới hình thành</t>
+  </si>
+  <si>
+    <t>Đặt lệnh Sell Limit bên cái đỉnh mới hình thành</t>
+  </si>
+  <si>
+    <t>Takeprofit ở cái keylevel bên dưới nơi hình thành con sóng tăng đó</t>
+  </si>
+  <si>
+    <t>Cái này an toàn hơn nhưng RR thấp hơn</t>
+  </si>
+  <si>
+    <t>Cái này không an toàn bằng nhưng RR cao hơn</t>
+  </si>
+  <si>
+    <t>Ý nghĩa của RSI khi vào vùng quá mua(&gt;70) và quá bán(&lt;30) là gì</t>
+  </si>
+  <si>
+    <t>Khi Rsi vào vùng quá mua(&gt;70) chứng tỏ rằng lực mua tăng mạnh và giá sẽ liên tục tăng cho đến khi lực mua yếu đi(các đỉnh mới hình thành nhưng RSI giảm đi)</t>
+  </si>
+  <si>
+    <t>Và chỉ kết thúc cho đến khi lực bán chiến thắng lực mua(khi xuất hiện RSI&lt;30)</t>
+  </si>
+  <si>
+    <t>Lúc này mới hình thành vùng quá mua là đỉnh cao nhất được tạo ra, nếu giá có test lại thì cũng chỉ đến cái đỉnh đấy rồi sẽ bị đảo chiều</t>
+  </si>
+  <si>
+    <t>Hình trên ở khung M5 nhưng ý nghĩa nó vẫn đúng trên mọi khung thời gian nha</t>
+  </si>
+  <si>
+    <t>Cũng không phải là bắt đỉnh đâu mà là thị trường chạy nhanh và xa rồi thì vào lệnh khả năng chiến thắng thấp nên tìm điểm đảo chiều của xu hướng cũng được</t>
+  </si>
+  <si>
+    <t>Hoặc là trong một xu hướng giảm có sóng hồi là tăng thì ta tìm điểm đảo chiều của sóng hồi đó để đi đúng xu hướng lớn cũng đúng mà</t>
+  </si>
+  <si>
+    <t>Nên tùy từng hoàn cảnh thôi kkk</t>
+  </si>
+  <si>
+    <t>Tất cả các tài liệu chỉ viết ví dụ cho trường hợp là tăng, còn giảm thì cũng tương tự</t>
+  </si>
+  <si>
+    <t>Còn đỉnh mới mà phá cao hơn đỉnh cũ thì ta lại phải chờ đợi tiếp</t>
+  </si>
+  <si>
+    <t>Thế người ta nói giá chạy rồi thì nói gì chả đúng</t>
+  </si>
+  <si>
+    <t>Thì thế là đúng rồi còn gì</t>
+  </si>
+  <si>
+    <t>Thế làm sao để có thể phân tích để nhận định cho tương lai</t>
+  </si>
+  <si>
+    <t>Thì ta sẽ dựa vào những dấu hiệu nho nhỏ được sinh ra</t>
+  </si>
+  <si>
+    <t>Ví dụ như xuất hiện những pha phá đáy trong một xu hướng tăng</t>
+  </si>
+  <si>
+    <t>Đáy trước thì ta thấy rồi</t>
+  </si>
+  <si>
+    <t>Giờ cái đáy đấy bị phá là một dấu hiệu đó</t>
+  </si>
+  <si>
+    <t>Rồi chỉ số RSI giảm về dưới 30 nữa</t>
+  </si>
+  <si>
+    <t>Nếu nhìn thấy nó hiển thị rõ mồn một thì làm sao mà sai được</t>
+  </si>
+  <si>
+    <t>Khi những dấu hiệu đó xảy ra thì ta sẽ soi xem sự phân kỳ giữa đường giá với RSI chưa(đó cũng là một dấu hiệu)</t>
+  </si>
+  <si>
+    <t>Chờ xem sóng hồi khi phá đáy có mạnh mẽ không, nếu yếu thì chặc hẳn lực bán đang dần mạnh lên</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +254,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -107,12 +290,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,6 +313,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>502360</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>189428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605118" y="5961529"/>
+          <a:ext cx="15238095" cy="8571428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +765,284 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>41</v>
+      </c>
+      <c r="K99" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>42</v>
+      </c>
+      <c r="K100" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>60</v>
+      </c>
+      <c r="H115" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H116" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H117" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="118" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H118" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/KiemY_RSI.xlsx
+++ b/KiemY_RSI.xlsx
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K78" sqref="K78"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L124" sqref="L124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/KiemY_RSI.xlsx
+++ b/KiemY_RSI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Người thực hiện:</t>
   </si>
@@ -220,13 +220,16 @@
   </si>
   <si>
     <t>Chờ xem sóng hồi khi phá đáy có mạnh mẽ không, nếu yếu thì chặc hẳn lực bán đang dần mạnh lên</t>
+  </si>
+  <si>
+    <t>Lĩnh ngộ tinh túy thị trường</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +272,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -290,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -298,6 +309,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L124" sqref="L124"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +645,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="90" x14ac:dyDescent="1.1499999999999999">
+    <row r="1" spans="1:10" ht="90" x14ac:dyDescent="1.1499999999999999">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -646,7 +658,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -657,7 +669,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -672,7 +684,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -687,7 +699,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -698,7 +710,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -713,7 +725,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -726,7 +738,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -739,7 +751,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -750,7 +762,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -765,7 +777,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -777,13 +789,16 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J12" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
